--- a/config/Paragraph Assignment Template.xlsx
+++ b/config/Paragraph Assignment Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCSU\510\Oct3\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CCSU\510\Oct20\collab\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD85E6B-CED5-4DDD-B908-A01ADF0F9D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE97FCEC-2DE4-443E-B5A0-BC1D963DF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E193EEBE-1495-45B8-AE2F-D40485261481}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Student</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -50,12 +47,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Sridhar Thiyagarajan</t>
-  </si>
-  <si>
-    <t>Kavitha Sridhar</t>
-  </si>
-  <si>
     <t>Start Date and Time</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>Paragraph Title</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>paragraph1</t>
   </si>
   <si>
@@ -77,7 +65,25 @@
     <t>Email ID</t>
   </si>
   <si>
-    <t>10/24/2024  22:00:00 PM</t>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Student Tag</t>
+  </si>
+  <si>
+    <t>Sridhar, Kavitha (Student)</t>
+  </si>
+  <si>
+    <t>k.sridhar@my.ccsu.edu</t>
+  </si>
+  <si>
+    <t>Singh, Surya P. (Student)</t>
+  </si>
+  <si>
+    <t>suryasingh@my.ccsu.edu</t>
+  </si>
+  <si>
+    <t>10/29/2024  22:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -87,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,20 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,11 +161,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -156,8 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2945CB69-CAA9-43D8-A676-B5E7B89D793A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -506,70 +550,74 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>45587.416666666664</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>45587.416666666664</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickTop="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
@@ -621,11 +669,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{EA48E276-386A-4BFD-914C-D122373E2DFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>